--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.962475943554891</v>
+        <v>2.742348</v>
       </c>
       <c r="H2">
-        <v>0.962475943554891</v>
+        <v>8.227043999999999</v>
       </c>
       <c r="I2">
-        <v>0.6259906635842424</v>
+        <v>0.8112951562181048</v>
       </c>
       <c r="J2">
-        <v>0.6259906635842424</v>
+        <v>0.8112951562181048</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.5608172146649</v>
+        <v>20.98493066666667</v>
       </c>
       <c r="N2">
-        <v>4.5608172146649</v>
+        <v>62.954792</v>
       </c>
       <c r="O2">
-        <v>0.3050589130929737</v>
+        <v>0.6651705782252746</v>
       </c>
       <c r="P2">
-        <v>0.3050589130929737</v>
+        <v>0.6651705782252747</v>
       </c>
       <c r="Q2">
-        <v>4.38967685206599</v>
+        <v>57.547982643872</v>
       </c>
       <c r="R2">
-        <v>4.38967685206599</v>
+        <v>517.931843794848</v>
       </c>
       <c r="S2">
-        <v>0.1909640314393583</v>
+        <v>0.5396496681729612</v>
       </c>
       <c r="T2">
-        <v>0.1909640314393583</v>
+        <v>0.5396496681729613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.962475943554891</v>
+        <v>2.742348</v>
       </c>
       <c r="H3">
-        <v>0.962475943554891</v>
+        <v>8.227043999999999</v>
       </c>
       <c r="I3">
-        <v>0.6259906635842424</v>
+        <v>0.8112951562181048</v>
       </c>
       <c r="J3">
-        <v>0.6259906635842424</v>
+        <v>0.8112951562181048</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.16992511171237</v>
+        <v>7.288088333333334</v>
       </c>
       <c r="N3">
-        <v>7.16992511171237</v>
+        <v>21.864265</v>
       </c>
       <c r="O3">
-        <v>0.4795740453057597</v>
+        <v>0.231014436399387</v>
       </c>
       <c r="P3">
-        <v>0.4795740453057597</v>
+        <v>0.231014436399387</v>
       </c>
       <c r="Q3">
-        <v>6.900880437113271</v>
+        <v>19.98647446474</v>
       </c>
       <c r="R3">
-        <v>6.900880437113271</v>
+        <v>179.87827018266</v>
       </c>
       <c r="S3">
-        <v>0.300208874858732</v>
+        <v>0.1874208932672781</v>
       </c>
       <c r="T3">
-        <v>0.300208874858732</v>
+        <v>0.1874208932672781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.962475943554891</v>
+        <v>2.742348</v>
       </c>
       <c r="H4">
-        <v>0.962475943554891</v>
+        <v>8.227043999999999</v>
       </c>
       <c r="I4">
-        <v>0.6259906635842424</v>
+        <v>0.8112951562181048</v>
       </c>
       <c r="J4">
-        <v>0.6259906635842424</v>
+        <v>0.8112951562181048</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.21986891268817</v>
+        <v>3.275175333333333</v>
       </c>
       <c r="N4">
-        <v>3.21986891268817</v>
+        <v>9.825526</v>
       </c>
       <c r="O4">
-        <v>0.2153670416012665</v>
+        <v>0.1038149853753384</v>
       </c>
       <c r="P4">
-        <v>0.2153670416012665</v>
+        <v>0.1038149853753384</v>
       </c>
       <c r="Q4">
-        <v>3.099046369862607</v>
+        <v>8.981670525016</v>
       </c>
       <c r="R4">
-        <v>3.099046369862607</v>
+        <v>80.835034725144</v>
       </c>
       <c r="S4">
-        <v>0.134817757286152</v>
+        <v>0.08422459477786541</v>
       </c>
       <c r="T4">
-        <v>0.134817757286152</v>
+        <v>0.08422459477786541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.386681859392873</v>
+        <v>0.3936376666666666</v>
       </c>
       <c r="H5">
-        <v>0.386681859392873</v>
+        <v>1.180913</v>
       </c>
       <c r="I5">
-        <v>0.25149639882249</v>
+        <v>0.1164536128425946</v>
       </c>
       <c r="J5">
-        <v>0.25149639882249</v>
+        <v>0.1164536128425946</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.5608172146649</v>
+        <v>20.98493066666667</v>
       </c>
       <c r="N5">
-        <v>4.5608172146649</v>
+        <v>62.954792</v>
       </c>
       <c r="O5">
-        <v>0.3050589130929737</v>
+        <v>0.6651705782252746</v>
       </c>
       <c r="P5">
-        <v>0.3050589130929737</v>
+        <v>0.6651705782252747</v>
       </c>
       <c r="Q5">
-        <v>1.763585280917648</v>
+        <v>8.260459142788443</v>
       </c>
       <c r="R5">
-        <v>1.763585280917648</v>
+        <v>74.34413228509599</v>
       </c>
       <c r="S5">
-        <v>0.07672121807158583</v>
+        <v>0.0774615169909309</v>
       </c>
       <c r="T5">
-        <v>0.07672121807158583</v>
+        <v>0.07746151699093091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.386681859392873</v>
+        <v>0.3936376666666666</v>
       </c>
       <c r="H6">
-        <v>0.386681859392873</v>
+        <v>1.180913</v>
       </c>
       <c r="I6">
-        <v>0.25149639882249</v>
+        <v>0.1164536128425946</v>
       </c>
       <c r="J6">
-        <v>0.25149639882249</v>
+        <v>0.1164536128425946</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.16992511171237</v>
+        <v>7.288088333333334</v>
       </c>
       <c r="N6">
-        <v>7.16992511171237</v>
+        <v>21.864265</v>
       </c>
       <c r="O6">
-        <v>0.4795740453057597</v>
+        <v>0.231014436399387</v>
       </c>
       <c r="P6">
-        <v>0.4795740453057597</v>
+        <v>0.231014436399387</v>
       </c>
       <c r="Q6">
-        <v>2.772479973904592</v>
+        <v>2.868866085993889</v>
       </c>
       <c r="R6">
-        <v>2.772479973904592</v>
+        <v>25.819794773945</v>
       </c>
       <c r="S6">
-        <v>0.1206111453631322</v>
+        <v>0.0269024657375044</v>
       </c>
       <c r="T6">
-        <v>0.1206111453631322</v>
+        <v>0.0269024657375044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.386681859392873</v>
+        <v>0.3936376666666666</v>
       </c>
       <c r="H7">
-        <v>0.386681859392873</v>
+        <v>1.180913</v>
       </c>
       <c r="I7">
-        <v>0.25149639882249</v>
+        <v>0.1164536128425946</v>
       </c>
       <c r="J7">
-        <v>0.25149639882249</v>
+        <v>0.1164536128425946</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.21986891268817</v>
+        <v>3.275175333333333</v>
       </c>
       <c r="N7">
-        <v>3.21986891268817</v>
+        <v>9.825526</v>
       </c>
       <c r="O7">
-        <v>0.2153670416012665</v>
+        <v>0.1038149853753384</v>
       </c>
       <c r="P7">
-        <v>0.2153670416012665</v>
+        <v>0.1038149853753384</v>
       </c>
       <c r="Q7">
-        <v>1.24506489815957</v>
+        <v>1.289232376137555</v>
       </c>
       <c r="R7">
-        <v>1.24506489815957</v>
+        <v>11.603091385238</v>
       </c>
       <c r="S7">
-        <v>0.05416403538777192</v>
+        <v>0.01208963011415927</v>
       </c>
       <c r="T7">
-        <v>0.05416403538777192</v>
+        <v>0.01208963011415928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.18836663558624</v>
+        <v>0.2442243333333333</v>
       </c>
       <c r="H8">
-        <v>0.18836663558624</v>
+        <v>0.732673</v>
       </c>
       <c r="I8">
-        <v>0.1225129375932674</v>
+        <v>0.07225123093930062</v>
       </c>
       <c r="J8">
-        <v>0.1225129375932674</v>
+        <v>0.07225123093930062</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.5608172146649</v>
+        <v>20.98493066666667</v>
       </c>
       <c r="N8">
-        <v>4.5608172146649</v>
+        <v>62.954792</v>
       </c>
       <c r="O8">
-        <v>0.3050589130929737</v>
+        <v>0.6651705782252746</v>
       </c>
       <c r="P8">
-        <v>0.3050589130929737</v>
+        <v>0.6651705782252747</v>
       </c>
       <c r="Q8">
-        <v>0.8591057942502334</v>
+        <v>5.125030702112889</v>
       </c>
       <c r="R8">
-        <v>0.8591057942502334</v>
+        <v>46.125276319016</v>
       </c>
       <c r="S8">
-        <v>0.03737366358202948</v>
+        <v>0.04805939306138245</v>
       </c>
       <c r="T8">
-        <v>0.03737366358202948</v>
+        <v>0.04805939306138245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.18836663558624</v>
+        <v>0.2442243333333333</v>
       </c>
       <c r="H9">
-        <v>0.18836663558624</v>
+        <v>0.732673</v>
       </c>
       <c r="I9">
-        <v>0.1225129375932674</v>
+        <v>0.07225123093930062</v>
       </c>
       <c r="J9">
-        <v>0.1225129375932674</v>
+        <v>0.07225123093930062</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.16992511171237</v>
+        <v>7.288088333333334</v>
       </c>
       <c r="N9">
-        <v>7.16992511171237</v>
+        <v>21.864265</v>
       </c>
       <c r="O9">
-        <v>0.4795740453057597</v>
+        <v>0.231014436399387</v>
       </c>
       <c r="P9">
-        <v>0.4795740453057597</v>
+        <v>0.231014436399387</v>
       </c>
       <c r="Q9">
-        <v>1.350574670698555</v>
+        <v>1.779928514482778</v>
       </c>
       <c r="R9">
-        <v>1.350574670698555</v>
+        <v>16.019356630345</v>
       </c>
       <c r="S9">
-        <v>0.05875402508389535</v>
+        <v>0.01669107739460448</v>
       </c>
       <c r="T9">
-        <v>0.05875402508389535</v>
+        <v>0.01669107739460448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.18836663558624</v>
+        <v>0.2442243333333333</v>
       </c>
       <c r="H10">
-        <v>0.18836663558624</v>
+        <v>0.732673</v>
       </c>
       <c r="I10">
-        <v>0.1225129375932674</v>
+        <v>0.07225123093930062</v>
       </c>
       <c r="J10">
-        <v>0.1225129375932674</v>
+        <v>0.07225123093930062</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.21986891268817</v>
+        <v>3.275175333333333</v>
       </c>
       <c r="N10">
-        <v>3.21986891268817</v>
+        <v>9.825526</v>
       </c>
       <c r="O10">
-        <v>0.2153670416012665</v>
+        <v>0.1038149853753384</v>
       </c>
       <c r="P10">
-        <v>0.2153670416012665</v>
+        <v>0.1038149853753384</v>
       </c>
       <c r="Q10">
-        <v>0.6065158741117953</v>
+        <v>0.7998775123331111</v>
       </c>
       <c r="R10">
-        <v>0.6065158741117953</v>
+        <v>7.198897610998</v>
       </c>
       <c r="S10">
-        <v>0.0263852489273426</v>
+        <v>0.007500760483313691</v>
       </c>
       <c r="T10">
-        <v>0.0263852489273426</v>
+        <v>0.007500760483313691</v>
       </c>
     </row>
   </sheetData>
